--- a/biology/Botanique/Lingulodinium/Lingulodinium.xlsx
+++ b/biology/Botanique/Lingulodinium/Lingulodinium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lingulodinium est un genre de dinophycées de la famille des Gonyaulacaceae.
 </t>
@@ -511,22 +523,24 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 mars 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 mars 2019) :
 Lingulodinium polyedra (F.Stein) J.D.Dodge
 Lingulodinium pugiatum (Drugg) Wall &amp; Dale (Sans vérification)
 Lingulodinium pycnospinosum (Benedek) Stover &amp; Evitt (Sans vérification)
 Lingulodinium siculum (Drugg) Wall &amp; Dale (Sans vérification)
 Lingulodinium solarum (Drugg) Wall &amp; Dale (Sans vérification)
 Lingulodinium xanthium (Benedek) Benedek &amp; Sarjeant (Sans vérification)
-Selon ITIS      (10 mars 2019)[2] :
+Selon ITIS      (10 mars 2019) :
 Lingulodinium polyedrum (Stein) J. D. Dodge
-Selon NCBI  (10 mars 2019)[3] :
+Selon NCBI  (10 mars 2019) :
 Lingulodinium polyedra Lingulodinium polyedrum (F.Stein) J.D.Dodge 1989
-Selon Paleobiology Database                   (10 mars 2019)[4] :
+Selon Paleobiology Database                   (10 mars 2019) :
 Lingulodinium hemicystum
-Selon World Register of Marine Species                               (10 mars 2019)[5] :
+Selon World Register of Marine Species                               (10 mars 2019) :
 Lingulodinium milneri (Murray &amp; Whitting) J.D.Dodge, 1989
 Lingulodinium polyedra (F.Stein) J.D.Dodge, 1989
 Lingulodinium pugiatum (Drugg) Wall &amp; Dale †
